--- a/DOC/要件定義/社内管理システム.xlsx
+++ b/DOC/要件定義/社内管理システム.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A54666-7FF0-4972-B055-20A30F7D75F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3624688C-3D2D-4250-9AF4-DD3C72582232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="885" windowWidth="22920" windowHeight="13950" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="435" windowWidth="25185" windowHeight="14535" tabRatio="1000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="社員リスト" sheetId="6" r:id="rId14"/>
     <sheet name="月度処理" sheetId="3" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2566,8 +2566,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2584,11 +2584,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9219,6 +9219,68 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E6B184-79F0-4E1B-8D05-DB3E419E1148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="1695450"/>
+          <a:ext cx="4543425" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16627,20 +16689,20 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
       <c r="AC2" s="32" t="s">
         <v>8</v>
       </c>
@@ -16751,19 +16813,19 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="45" t="s">
         <v>98</v>
       </c>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
       <c r="O5" s="42"/>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="45" t="s">
         <v>99</v>
       </c>
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
       <c r="S5" s="42"/>
-      <c r="T5" s="46"/>
+      <c r="T5" s="45"/>
       <c r="U5" s="41"/>
       <c r="V5" s="41"/>
       <c r="W5" s="42"/>
@@ -16794,7 +16856,7 @@
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
-      <c r="H6" s="45"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
@@ -16833,7 +16895,7 @@
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
-      <c r="H7" s="45"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
@@ -16872,7 +16934,7 @@
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="45"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
@@ -16911,7 +16973,7 @@
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
@@ -16950,7 +17012,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="45"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -16989,7 +17051,7 @@
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -17028,7 +17090,7 @@
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -17067,7 +17129,7 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -17106,7 +17168,7 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -17734,64 +17796,30 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="T12:W12"/>
@@ -17816,30 +17844,64 @@
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="T10:W10"/>
     <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19600,76 +19662,6 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
     <mergeCell ref="X17:AC17"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="X7:AC7"/>
@@ -19682,6 +19674,76 @@
     <mergeCell ref="X14:AC14"/>
     <mergeCell ref="X15:AC15"/>
     <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21652,8 +21714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F909F318-5125-4BF4-9275-FE8C70D2F89E}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22000,7 +22062,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -22008,7 +22071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81E8075-D5AE-4F20-8F2B-EF172CBC1A54}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AQ13" sqref="AQ13"/>
     </sheetView>
   </sheetViews>
@@ -22092,20 +22155,20 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
       <c r="AC2" s="32" t="s">
         <v>8</v>
       </c>
@@ -22220,19 +22283,19 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="45" t="s">
         <v>199</v>
       </c>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
       <c r="O5" s="42"/>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="45" t="s">
         <v>197</v>
       </c>
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
       <c r="S5" s="42"/>
-      <c r="T5" s="46" t="s">
+      <c r="T5" s="45" t="s">
         <v>198</v>
       </c>
       <c r="U5" s="41"/>
@@ -22269,7 +22332,7 @@
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="39" t="s">
         <v>170</v>
       </c>
       <c r="I6" s="31"/>
@@ -22324,7 +22387,7 @@
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="39" t="s">
         <v>170</v>
       </c>
       <c r="I7" s="31"/>
@@ -22379,7 +22442,7 @@
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="39" t="s">
         <v>170</v>
       </c>
       <c r="I8" s="31"/>
@@ -22430,7 +22493,7 @@
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
@@ -22469,7 +22532,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="45"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -22508,7 +22571,7 @@
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -22547,7 +22610,7 @@
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -22586,7 +22649,7 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -22625,7 +22688,7 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -23300,56 +23363,22 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
     <mergeCell ref="X6:AA6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
@@ -23363,22 +23392,56 @@
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23475,20 +23538,20 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
       <c r="AC2" s="32" t="s">
         <v>8</v>
       </c>
@@ -23603,19 +23666,19 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="45" t="s">
         <v>55</v>
       </c>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
       <c r="O5" s="42"/>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="45" t="s">
         <v>56</v>
       </c>
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
       <c r="S5" s="42"/>
-      <c r="T5" s="46" t="s">
+      <c r="T5" s="45" t="s">
         <v>57</v>
       </c>
       <c r="U5" s="41"/>
@@ -23656,7 +23719,7 @@
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="39" t="s">
         <v>54</v>
       </c>
       <c r="I6" s="31"/>
@@ -23717,7 +23780,7 @@
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
-      <c r="H7" s="45"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
@@ -23756,7 +23819,7 @@
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="45"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
@@ -23795,7 +23858,7 @@
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
@@ -23834,7 +23897,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="45"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -23873,7 +23936,7 @@
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -23912,7 +23975,7 @@
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -23951,7 +24014,7 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -23990,7 +24053,7 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -24786,88 +24849,6 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
@@ -24892,6 +24873,88 @@
     <mergeCell ref="T13:W13"/>
     <mergeCell ref="X13:AA13"/>
     <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/要件定義/社内管理システム.xlsx
+++ b/DOC/要件定義/社内管理システム.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A54666-7FF0-4972-B055-20A30F7D75F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177B8BAC-D1AD-417D-BD31-791780ACAD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="885" windowWidth="22920" windowHeight="13950" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="7" r:id="rId1"/>
     <sheet name="環境" sheetId="1" r:id="rId2"/>
     <sheet name="ログイン" sheetId="2" r:id="rId3"/>
     <sheet name="オフィス画面" sheetId="8" r:id="rId4"/>
-    <sheet name="一般経費" sheetId="15" r:id="rId5"/>
-    <sheet name="勤怠リスト" sheetId="16" r:id="rId6"/>
-    <sheet name="給料一覧(製造中)" sheetId="4" r:id="rId7"/>
-    <sheet name="給料作成（製造中）" sheetId="14" r:id="rId8"/>
-    <sheet name="稼働時間入力20210305製造完" sheetId="11" r:id="rId9"/>
-    <sheet name="交通費入力20210305製造完" sheetId="10" r:id="rId10"/>
-    <sheet name="稼働確認20210305製造完" sheetId="12" r:id="rId11"/>
-    <sheet name="給料明細20210227完" sheetId="5" r:id="rId12"/>
-    <sheet name="→のシート削除予定かな" sheetId="9" r:id="rId13"/>
-    <sheet name="社員リスト" sheetId="6" r:id="rId14"/>
-    <sheet name="月度処理" sheetId="3" r:id="rId15"/>
+    <sheet name="社員情報変更" sheetId="17" r:id="rId5"/>
+    <sheet name="一般経費" sheetId="15" r:id="rId6"/>
+    <sheet name="勤怠リスト" sheetId="16" r:id="rId7"/>
+    <sheet name="給料一覧(製造中)" sheetId="4" r:id="rId8"/>
+    <sheet name="給料作成（製造中）" sheetId="14" r:id="rId9"/>
+    <sheet name="稼働時間入力20210305製造完" sheetId="11" r:id="rId10"/>
+    <sheet name="交通費入力20210305製造完" sheetId="10" r:id="rId11"/>
+    <sheet name="稼働確認20210305製造完" sheetId="12" r:id="rId12"/>
+    <sheet name="給料明細20210227完" sheetId="5" r:id="rId13"/>
+    <sheet name="→のシート削除予定かな" sheetId="9" r:id="rId14"/>
+    <sheet name="社員リスト" sheetId="6" r:id="rId15"/>
+    <sheet name="月度処理" sheetId="3" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="232">
   <si>
     <t>１）言語</t>
     <rPh sb="2" eb="4">
@@ -2182,12 +2183,133 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>P007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報変更</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１）プロジェクト：EMS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２）機能、ログイン者自分情報を変更</t>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID：</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員氏名：</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号：</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年齢：</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別：</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人番号：</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社日：</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部門：</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gxsXXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/11/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2235,6 +2357,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2456,7 +2585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2566,8 +2695,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2584,11 +2713,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4105,6 +4237,2764 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB5B4B6-28B8-4F5F-93BA-3B554005E4B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="809624"/>
+          <a:ext cx="8410575" cy="4124325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                                           </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C4F9A5-5143-40A5-A025-FD67642E861B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="828675"/>
+          <a:ext cx="19050" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDD4CF5-9C78-4FA3-AE2D-CC6640E76DD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="923925"/>
+          <a:ext cx="1019175" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>機能：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC04397-A4F9-4CBB-BC5C-35672DB2E541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="1266825"/>
+          <a:ext cx="1019175" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　給料管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FE201C-C061-43DD-A679-863E3D1D3814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="1609725"/>
+          <a:ext cx="1019175" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　稼働時間</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E412B256-0AF5-4EB1-A263-99978215F4C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="1933575"/>
+          <a:ext cx="1019175" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　交通費</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC4C620-D9B0-4F22-B60A-BFFB40D9F217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314701" y="1552577"/>
+          <a:ext cx="314324" cy="323848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4437D5-35EC-4202-B48A-821002EEA8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="4533900"/>
+          <a:ext cx="1152525" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　只今の日時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4D21F7-ADDB-4D30-83E2-05B1A307DB64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="3286125"/>
+          <a:ext cx="1209675" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　社員リスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8A64B9-962A-4C00-9276-52E5AA3309CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914651" y="1600202"/>
+          <a:ext cx="485774" cy="228598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2020</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6BF1BF-AA11-4BA4-9F53-E879AEECA54D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819526" y="1552577"/>
+          <a:ext cx="361950" cy="323848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0856672B-7BD8-465D-B834-7205FC5B6035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543301" y="1590677"/>
+          <a:ext cx="342899" cy="247648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DAF32-303E-4B57-BE23-958363C220FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="1990727"/>
+          <a:ext cx="847725" cy="342898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>定期券：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BF0A75-F968-4467-89CE-54CA71B4AF1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="2466976"/>
+          <a:ext cx="771526" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>西川口</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C77FF91-4C98-44B7-8261-0B677BA4444E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866901" y="2409827"/>
+          <a:ext cx="628650" cy="314323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>駅</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BBDC66-30AF-4276-8B86-B129A45D423C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190875" y="2428877"/>
+          <a:ext cx="952499" cy="304798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>交通機関：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955C9AAB-27B8-441A-B3C0-0A48F58B7946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="2457451"/>
+          <a:ext cx="771526" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>JR</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E5C87D-0CFB-492E-98C9-02FAB1F5F8AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="2428876"/>
+          <a:ext cx="771526" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>品川</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C25A9FC-F344-4E6B-9F4F-201CDE14C954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924426" y="2419352"/>
+          <a:ext cx="590549" cy="314323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>駅</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BDC6C7-3DB6-41F2-B143-D43A85D8ED01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7153275" y="2438401"/>
+          <a:ext cx="771526" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>11,360</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>円</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEE4ABC-BEDC-4E12-9C20-B92761CB3FA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438901" y="2419352"/>
+          <a:ext cx="790574" cy="314323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ケ月：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E4ABC2-C371-4879-BD42-C214D07CBDDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="2800351"/>
+          <a:ext cx="771526" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>品川</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85996227-9DE8-4883-BEDD-66646AFB4724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876426" y="2743202"/>
+          <a:ext cx="628650" cy="314323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>駅</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EB4EAD-DFA4-4675-BBFD-4F3BA911D300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="2762252"/>
+          <a:ext cx="952499" cy="304798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>交通機関：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB52D8B-CE52-4489-92DA-25E7825D0F1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="2790826"/>
+          <a:ext cx="771526" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>JR</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFD9953-04E1-4CEA-AB5F-DE2ECB34AE10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419724" y="2762251"/>
+          <a:ext cx="1057275" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>天王洲アイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2884DE90-3644-4318-9800-261B40A4A15F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4933951" y="2752727"/>
+          <a:ext cx="590549" cy="314323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>駅</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72CFAEC-6EFA-4EFB-B4F2-9FF780E15BC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="2771776"/>
+          <a:ext cx="771526" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>2,400</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>円</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83E0103-BA3A-490A-A8BC-CD088A1EB3DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457951" y="2752727"/>
+          <a:ext cx="790574" cy="314323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ケ月：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443E4685-46A8-4CFA-9AFF-F0543A8F66E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="2019301"/>
+          <a:ext cx="771526" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>13,760</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>円</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD185EF-32EE-4D3A-956C-1E1CAF87F5EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="3314702"/>
+          <a:ext cx="952500" cy="276223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>短期出張：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7991A65-7E71-4887-A30E-2B0E942E746F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="3333751"/>
+          <a:ext cx="771526" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>540</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>円</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8104D1F8-529E-4209-B0E4-C37D2C43DD38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590924" y="3305177"/>
+          <a:ext cx="1781175" cy="276223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>短期出張アップロード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6109,7 +8999,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6182,7 +9072,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6444,7 +9334,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8390,6 +11280,671 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10CA9289-A871-4B1A-ADB8-0AEC9232DC28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="1895475"/>
+          <a:ext cx="1304925" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>１２３４５</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200023</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8FC367-E336-4ADD-B52A-6A7319C4F5C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857373" y="1600199"/>
+          <a:ext cx="1333501" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>社員氏名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 磁気ディスク 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67765B8B-6195-4205-BB61-A3139D710E0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381249" y="8048625"/>
+          <a:ext cx="1152525" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>社員テーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF99C05-B103-4810-A712-D3408BE722D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="4410075"/>
+          <a:ext cx="695325" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>更新</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A011DD-B73F-4726-AF48-D1016FA3B197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="2171700"/>
+          <a:ext cx="1304925" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>１２３４５</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B27DA3-F678-4955-BF59-4299A024544D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="2447925"/>
+          <a:ext cx="1304925" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>１２３４５</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5383D3-8860-415E-9221-414BE4D12E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="3238500"/>
+          <a:ext cx="1304925" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>１２３４５</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3F2727-13F1-4C7C-AF62-FAD194A2ADF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="2809875"/>
+          <a:ext cx="1304925" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>１２３４５</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -9222,7 +12777,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9371,7 +12926,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9651,7 +13206,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10121,7 +13676,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11346,2764 +14901,6 @@
             <a:t>勤務表アップロード</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB5B4B6-28B8-4F5F-93BA-3B554005E4B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="180975" y="809624"/>
-          <a:ext cx="8410575" cy="4124325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　　　　　　　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　　　　　　　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>                                           </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　　　　　　　　　　　　　　　　　　　</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C4F9A5-5143-40A5-A025-FD67642E861B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1628775" y="828675"/>
-          <a:ext cx="19050" cy="4114800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDD4CF5-9C78-4FA3-AE2D-CC6640E76DD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="180975" y="923925"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>機能：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC04397-A4F9-4CBB-BC5C-35672DB2E541}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1266825"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　給料管理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FE201C-C061-43DD-A679-863E3D1D3814}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1609725"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　稼働時間</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E412B256-0AF5-4EB1-A263-99978215F4C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1933575"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　交通費</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC4C620-D9B0-4F22-B60A-BFFB40D9F217}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3314701" y="1552577"/>
-          <a:ext cx="314324" cy="323848"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4437D5-35EC-4202-B48A-821002EEA8D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="4533900"/>
-          <a:ext cx="1152525" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　只今の日時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4D21F7-ADDB-4D30-83E2-05B1A307DB64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="295275" y="3286125"/>
-          <a:ext cx="1209675" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　社員リスト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8A64B9-962A-4C00-9276-52E5AA3309CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2914651" y="1600202"/>
-          <a:ext cx="485774" cy="228598"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2020</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6BF1BF-AA11-4BA4-9F53-E879AEECA54D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3819526" y="1552577"/>
-          <a:ext cx="361950" cy="323848"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>月</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0856672B-7BD8-465D-B834-7205FC5B6035}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3543301" y="1590677"/>
-          <a:ext cx="342899" cy="247648"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>01</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DAF32-303E-4B57-BE23-958363C220FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1752600" y="1990727"/>
-          <a:ext cx="847725" cy="342898"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>定期券：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BF0A75-F968-4467-89CE-54CA71B4AF1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2409825" y="2466976"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>西川口</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180977</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C77FF91-4C98-44B7-8261-0B677BA4444E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1866901" y="2409827"/>
-          <a:ext cx="628650" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>駅</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>200027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BBDC66-30AF-4276-8B86-B129A45D423C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3190875" y="2428877"/>
-          <a:ext cx="952499" cy="304798"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>交通機関：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955C9AAB-27B8-441A-B3C0-0A48F58B7946}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4076700" y="2457451"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>JR</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E5C87D-0CFB-492E-98C9-02FAB1F5F8AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5410200" y="2428876"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>品川</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C25A9FC-F344-4E6B-9F4F-201CDE14C954}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4924426" y="2419352"/>
-          <a:ext cx="590549" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>駅</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BDC6C7-3DB6-41F2-B143-D43A85D8ED01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7153275" y="2438401"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>11,360</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>円</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEE4ABC-BEDC-4E12-9C20-B92761CB3FA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6438901" y="2419352"/>
-          <a:ext cx="790574" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ケ月：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E4ABC2-C371-4879-BD42-C214D07CBDDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2419350" y="2800351"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>品川</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85996227-9DE8-4883-BEDD-66646AFB4724}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1876426" y="2743202"/>
-          <a:ext cx="628650" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>駅</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EB4EAD-DFA4-4675-BBFD-4F3BA911D300}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3200400" y="2762252"/>
-          <a:ext cx="952499" cy="304798"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>交通機関：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB52D8B-CE52-4489-92DA-25E7825D0F1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4086225" y="2790826"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>JR</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFD9953-04E1-4CEA-AB5F-DE2ECB34AE10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5419724" y="2762251"/>
-          <a:ext cx="1057275" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>天王洲アイル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47627</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2884DE90-3644-4318-9800-261B40A4A15F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4933951" y="2752727"/>
-          <a:ext cx="590549" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>駅</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72CFAEC-6EFA-4EFB-B4F2-9FF780E15BC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7162800" y="2771776"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>2,400</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>円</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47627</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83E0103-BA3A-490A-A8BC-CD088A1EB3DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6457951" y="2752727"/>
-          <a:ext cx="790574" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ケ月：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443E4685-46A8-4CFA-9AFF-F0543A8F66E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2533650" y="2019301"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>13,760</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>円</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD185EF-32EE-4D3A-956C-1E1CAF87F5EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1733550" y="3314702"/>
-          <a:ext cx="952500" cy="276223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>短期出張：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7991A65-7E71-4887-A30E-2B0E942E746F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2695575" y="3333751"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>540</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>円</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8104D1F8-529E-4209-B0E4-C37D2C43DD38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3590924" y="3305177"/>
-          <a:ext cx="1781175" cy="276223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>短期出張アップロード</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14539,6 +15336,318 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440274E1-6FAA-4DBD-852C-277EA209C3C6}">
+  <dimension ref="A1:AG27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN23" sqref="AN23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="62" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+    </row>
+    <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+    </row>
+    <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG3" s="3"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="Y4" s="23"/>
+      <c r="AG4" s="3"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="Y5" s="23"/>
+      <c r="AG5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="Y6" s="23"/>
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="Y7" s="23"/>
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="Y8" s="23"/>
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="Y9" s="23"/>
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="Y10" s="23"/>
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="Y11" s="23"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="Y12" s="23"/>
+      <c r="AG12" s="3"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="Y13" s="23"/>
+      <c r="AG13" s="3"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="Y14" s="23"/>
+      <c r="AG14" s="3"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="Y15" s="23"/>
+      <c r="AG15" s="3"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="Y16" s="23"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="Y17" s="23"/>
+      <c r="AG17" s="3"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="Y18" s="23"/>
+      <c r="AG18" s="3"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="Y19" s="23"/>
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="Y20" s="23"/>
+      <c r="AG20" s="3"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="9"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG22" s="3"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="AG23" s="3"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG24" s="3"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG25" s="3"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="AG26" s="3"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BC5A52-DBD2-4442-AE1E-7314248ADAF7}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
@@ -14882,7 +15991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA733BC-7D98-4014-9050-14739B898453}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
@@ -15232,7 +16341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH33"/>
   <sheetViews>
@@ -16515,7 +17624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEFC46C-BE9B-4593-9B5D-0C64259FB4BF}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -16537,7 +17646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -16627,20 +17736,20 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
       <c r="AC2" s="32" t="s">
         <v>8</v>
       </c>
@@ -16751,19 +17860,19 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="45" t="s">
         <v>98</v>
       </c>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
       <c r="O5" s="42"/>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="45" t="s">
         <v>99</v>
       </c>
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
       <c r="S5" s="42"/>
-      <c r="T5" s="46"/>
+      <c r="T5" s="45"/>
       <c r="U5" s="41"/>
       <c r="V5" s="41"/>
       <c r="W5" s="42"/>
@@ -16794,7 +17903,7 @@
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
-      <c r="H6" s="45"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
@@ -16833,7 +17942,7 @@
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
-      <c r="H7" s="45"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
@@ -16872,7 +17981,7 @@
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="45"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
@@ -16911,7 +18020,7 @@
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
@@ -16950,7 +18059,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="45"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -16989,7 +18098,7 @@
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -17028,7 +18137,7 @@
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -17067,7 +18176,7 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -17106,7 +18215,7 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -17734,64 +18843,30 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="T12:W12"/>
@@ -17816,30 +18891,64 @@
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="T10:W10"/>
     <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17848,7 +18957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -19600,76 +20709,6 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
     <mergeCell ref="X17:AC17"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="X7:AC7"/>
@@ -19682,6 +20721,76 @@
     <mergeCell ref="X14:AC14"/>
     <mergeCell ref="X15:AC15"/>
     <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21649,6 +22758,1607 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E85E209-311B-4B6B-A977-94BC1059D54A}">
+  <dimension ref="A1:AG58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="62" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+    </row>
+    <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+    </row>
+    <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="3"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="3"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="3"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="3"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="3"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="3"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="3"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="3"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="3"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="3"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="3"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="3"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="3"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="3"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="9"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="3"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="3"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="3"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="3"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="3"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="3"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="3"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="9"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="3"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="3"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="3"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="3"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="6"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="D47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F909F318-5125-4BF4-9275-FE8C70D2F89E}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
@@ -22004,12 +24714,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81E8075-D5AE-4F20-8F2B-EF172CBC1A54}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ13" sqref="AQ13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22092,20 +24802,20 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
       <c r="AC2" s="32" t="s">
         <v>8</v>
       </c>
@@ -22220,19 +24930,19 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="45" t="s">
         <v>199</v>
       </c>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
       <c r="O5" s="42"/>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="45" t="s">
         <v>197</v>
       </c>
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
       <c r="S5" s="42"/>
-      <c r="T5" s="46" t="s">
+      <c r="T5" s="45" t="s">
         <v>198</v>
       </c>
       <c r="U5" s="41"/>
@@ -22269,7 +24979,7 @@
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="39" t="s">
         <v>170</v>
       </c>
       <c r="I6" s="31"/>
@@ -22324,7 +25034,7 @@
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="39" t="s">
         <v>170</v>
       </c>
       <c r="I7" s="31"/>
@@ -22379,7 +25089,7 @@
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="39" t="s">
         <v>170</v>
       </c>
       <c r="I8" s="31"/>
@@ -22430,7 +25140,7 @@
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
@@ -22469,7 +25179,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="45"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -22508,7 +25218,7 @@
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -22547,7 +25257,7 @@
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -22586,7 +25296,7 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -22625,7 +25335,7 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -23300,56 +26010,22 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
     <mergeCell ref="X6:AA6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
@@ -23363,22 +26039,56 @@
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23387,7 +26097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK33"/>
   <sheetViews>
@@ -23475,20 +26185,20 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
       <c r="AC2" s="32" t="s">
         <v>8</v>
       </c>
@@ -23603,19 +26313,19 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="45" t="s">
         <v>55</v>
       </c>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
       <c r="O5" s="42"/>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="45" t="s">
         <v>56</v>
       </c>
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
       <c r="S5" s="42"/>
-      <c r="T5" s="46" t="s">
+      <c r="T5" s="45" t="s">
         <v>57</v>
       </c>
       <c r="U5" s="41"/>
@@ -23656,7 +26366,7 @@
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="39" t="s">
         <v>54</v>
       </c>
       <c r="I6" s="31"/>
@@ -23717,7 +26427,7 @@
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
-      <c r="H7" s="45"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
@@ -23756,7 +26466,7 @@
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="45"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
@@ -23795,7 +26505,7 @@
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
@@ -23834,7 +26544,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="45"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -23873,7 +26583,7 @@
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -23912,7 +26622,7 @@
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -23951,7 +26661,7 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -23990,7 +26700,7 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -24786,88 +27496,6 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
@@ -24892,6 +27520,88 @@
     <mergeCell ref="T13:W13"/>
     <mergeCell ref="X13:AA13"/>
     <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24900,7 +27610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32BD181-CAFE-4E56-A564-64DEA08C7205}">
   <dimension ref="A1:AH37"/>
   <sheetViews>
@@ -26343,316 +29053,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440274E1-6FAA-4DBD-852C-277EA209C3C6}">
-  <dimension ref="A1:AG27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AN23" sqref="AN23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="62" width="3.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-    </row>
-    <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-    </row>
-    <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="Y4" s="23"/>
-      <c r="AG4" s="3"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="Y5" s="23"/>
-      <c r="AG5" s="3"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="Y6" s="23"/>
-      <c r="AG6" s="3"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="Y7" s="23"/>
-      <c r="AG7" s="3"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="Y8" s="23"/>
-      <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="Y9" s="23"/>
-      <c r="AG9" s="3"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="Y10" s="23"/>
-      <c r="AG10" s="3"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="Y11" s="23"/>
-      <c r="AG11" s="3"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="Y12" s="23"/>
-      <c r="AG12" s="3"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="Y13" s="23"/>
-      <c r="AG13" s="3"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="Y14" s="23"/>
-      <c r="AG14" s="3"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="Y15" s="23"/>
-      <c r="AG15" s="3"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="Y16" s="23"/>
-      <c r="AG16" s="3"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="Y17" s="23"/>
-      <c r="AG17" s="3"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="Y18" s="23"/>
-      <c r="AG18" s="3"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="Y19" s="23"/>
-      <c r="AG19" s="3"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="Y20" s="23"/>
-      <c r="AG20" s="3"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="9"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG22" s="3"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="AG23" s="3"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="C24" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG24" s="3"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-      <c r="C25" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG25" s="3"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-      <c r="AG26" s="3"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>